--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7F6EF-640D-4CAC-8CD6-0C02829B500E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1DECF-5EDE-4F33-A036-B16982A26A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
+    <sheet name="Czech" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>Wg</t>
   </si>
@@ -157,6 +158,12 @@
   </si>
   <si>
     <t>Belgium market</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1731/T1843</t>
   </si>
 </sst>
 </file>
@@ -580,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,4 +1033,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403680DB-E0F4-4837-9589-9DB8491A6712}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1DECF-5EDE-4F33-A036-B16982A26A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0E7C2-3A0E-4F8F-AAC3-C8292BFD5547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -164,6 +165,36 @@
   </si>
   <si>
     <t>NGC-3477/T1731/T1843</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>MZX250CH</t>
+  </si>
+  <si>
+    <t>MZX252CH</t>
+  </si>
+  <si>
+    <t>MZX254CH</t>
+  </si>
+  <si>
+    <t>P115SCH</t>
+  </si>
+  <si>
+    <t>P405DCH</t>
+  </si>
+  <si>
+    <t>Pro215S Lite CH</t>
+  </si>
+  <si>
+    <t>Pro415S Lite CH</t>
+  </si>
+  <si>
+    <t>Pro815D-CH</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2343/T2641</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403680DB-E0F4-4837-9589-9DB8491A6712}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,4 +1290,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032B5A8E-15F8-4FCA-89A0-B00BA1AB3C7D}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0E7C2-3A0E-4F8F-AAC3-C8292BFD5547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44220C4-EE52-497F-A254-D53BEAE1F004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -195,13 +196,19 @@
   </si>
   <si>
     <t>NGC-3476/T2343/T2641</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2403</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +227,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -618,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:D35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +854,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A8" sqref="A8:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032B5A8E-15F8-4FCA-89A0-B00BA1AB3C7D}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1516,4 +1529,232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC6A6A4-8F14-4A04-8B78-CAAED5F9A868}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44220C4-EE52-497F-A254-D53BEAE1F004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B6E08D-3327-4E39-9276-6F7F2C5FDD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="57">
   <si>
     <t>Wg</t>
   </si>
@@ -202,6 +203,12 @@
   </si>
   <si>
     <t>NGC-3479/T2403</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2930/T3219/T3183/T3238 </t>
   </si>
 </sst>
 </file>
@@ -853,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC6A6A4-8F14-4A04-8B78-CAAED5F9A868}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1757,4 +1764,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E0AEF-3205-4148-A6A4-70EBC8D4A68C}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B6E08D-3327-4E39-9276-6F7F2C5FDD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE81BB0-C681-486A-B98C-EAC6FAAB108B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
+    <sheet name="Italy" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="59">
   <si>
     <t>Wg</t>
   </si>
@@ -209,6 +210,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-2930/T3219/T3183/T3238 </t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2153/T2218/T2456</t>
   </si>
 </sst>
 </file>
@@ -638,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A34"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403680DB-E0F4-4837-9589-9DB8491A6712}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1543,7 +1550,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1770,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E0AEF-3205-4148-A6A4-70EBC8D4A68C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1971,4 +1978,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F7AEB-666F-4224-A4CE-D9E4B2811CF5}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE81BB0-C681-486A-B98C-EAC6FAAB108B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A04562-7F19-4E40-A958-C59DBC10D416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
+    <sheet name="Spain" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="61">
   <si>
     <t>Wg</t>
   </si>
@@ -216,6 +217,12 @@
   </si>
   <si>
     <t>NGC-3145/T2153/T2218/T2456</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2019/T2046/T2066</t>
   </si>
 </sst>
 </file>
@@ -1984,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F7AEB-666F-4224-A4CE-D9E4B2811CF5}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2204,4 +2211,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CF2A52-BBFA-4558-9A70-15CAEE8FA662}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A04562-7F19-4E40-A958-C59DBC10D416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9235B54B-AB72-4503-A5DC-9643B01FFB66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="63">
   <si>
     <t>Wg</t>
   </si>
@@ -223,6 +224,12 @@
   </si>
   <si>
     <t>NGC-3103/T2019/T2046/T2066</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3290</t>
   </si>
 </sst>
 </file>
@@ -2217,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CF2A52-BBFA-4558-9A70-15CAEE8FA662}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,4 +2444,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AE813-DD58-4420-9F8E-73D3E152D40F}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9235B54B-AB72-4503-A5DC-9643B01FFB66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3EBB4-E45B-4DD7-A063-360996D429BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="3228" yWindow="3228" windowWidth="17280" windowHeight="8880" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="65">
   <si>
     <t>Wg</t>
   </si>
@@ -230,6 +231,12 @@
   </si>
   <si>
     <t>NGC-3191/T3290</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2414</t>
   </si>
 </sst>
 </file>
@@ -659,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -877,11 +884,223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978719CA-B188-4A16-A8B8-5591F97CCF5E}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A35"/>
     </sheetView>
   </sheetViews>
@@ -1111,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403680DB-E0F4-4837-9589-9DB8491A6712}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:A31"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC6A6A4-8F14-4A04-8B78-CAAED5F9A868}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1791,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E0AEF-3205-4148-A6A4-70EBC8D4A68C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,7 +2444,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:D36"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2450,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AE813-DD58-4420-9F8E-73D3E152D40F}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3EBB4-E45B-4DD7-A063-360996D429BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7F1FA-33A9-494C-AA99-B4CF40D8C7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="3228" windowWidth="17280" windowHeight="8880" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="15" r:id="rId10"/>
+    <sheet name="Greece" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="67">
   <si>
     <t>Wg</t>
   </si>
@@ -237,6 +238,12 @@
   </si>
   <si>
     <t>NGC-3139/T2414</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3164</t>
   </si>
 </sst>
 </file>
@@ -888,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978719CA-B188-4A16-A8B8-5591F97CCF5E}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,6 +1066,218 @@
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDB7D6-404C-4204-9023-E777C2EA10BC}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7F1FA-33A9-494C-AA99-B4CF40D8C7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712582A-41A5-408C-BBA8-9A15249DFC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="15" r:id="rId10"/>
     <sheet name="Greece" sheetId="16" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="17" r:id="rId12"/>
+    <sheet name="Austria" sheetId="18" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="75">
   <si>
     <t>Wg</t>
   </si>
@@ -244,6 +247,30 @@
   </si>
   <si>
     <t>NGC-4119/T3164</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2175</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2271</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2271</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>MZX251S</t>
+  </si>
+  <si>
+    <t>MZX254S</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDB7D6-404C-4204-9023-E777C2EA10BC}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1302,6 +1329,644 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FC886B-E059-48E4-9CEB-98B1D6FAD3A4}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9CD8DE-67F4-406F-95C1-E05340CFC18B}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35DCD35-4EFA-491C-B624-C90BA6F979AC}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2662,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CF2A52-BBFA-4558-9A70-15CAEE8FA662}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712582A-41A5-408C-BBA8-9A15249DFC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF49E064-C673-4227-B7BA-931F5B3F21B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="75">
   <si>
     <t>Wg</t>
   </si>
@@ -261,9 +261,6 @@
     <t>NGC-3817/T2271</t>
   </si>
   <si>
-    <t>NGC-2913/T2271</t>
-  </si>
-  <si>
     <t>Denmark Market</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>MZX254S</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2748</t>
   </si>
 </sst>
 </file>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FC886B-E059-48E4-9CEB-98B1D6FAD3A4}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35DCD35-4EFA-491C-B624-C90BA6F979AC}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1829,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1937,36 +1937,31 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF49E064-C673-4227-B7BA-931F5B3F21B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7664C-B8D7-4F66-9663-94C900780E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="17" r:id="rId12"/>
     <sheet name="Austria" sheetId="18" r:id="rId13"/>
     <sheet name="Denmark" sheetId="19" r:id="rId14"/>
+    <sheet name="Russia" sheetId="21" r:id="rId15"/>
+    <sheet name="Finland" sheetId="22" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="81">
   <si>
     <t>Wg</t>
   </si>
@@ -271,6 +274,24 @@
   </si>
   <si>
     <t>NGC-2913/T2748</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2897</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2940</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2989</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35DCD35-4EFA-491C-B624-C90BA6F979AC}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1962,6 +1983,629 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334A2FD4-53A5-4678-8A9B-33AF2B6F977C}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1271AC-FFEC-44CE-91CF-FA4FCCBE2833}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E45EC7-15DA-4D32-9BE7-80449F0FB753}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7664C-B8D7-4F66-9663-94C900780E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C099E333-7637-4510-B4EE-49F01150E0F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="21" r:id="rId15"/>
     <sheet name="Finland" sheetId="22" r:id="rId16"/>
     <sheet name="Hungary" sheetId="23" r:id="rId17"/>
+    <sheet name="Norway" sheetId="24" r:id="rId18"/>
+    <sheet name="Poland" sheetId="25" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="85">
   <si>
     <t>Wg</t>
   </si>
@@ -292,6 +294,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3058</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3101</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E45EC7-15DA-4D32-9BE7-80449F0FB753}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
@@ -2606,6 +2620,425 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4AA65D-6887-4F9C-9BAB-08E9F9E10938}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A9A74B-3134-4C31-B7EB-7605EB0C9114}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C099E333-7637-4510-B4EE-49F01150E0F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1350465D-E32C-4DD3-B170-47930E8916F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="85">
   <si>
     <t>Wg</t>
   </si>
@@ -2012,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334A2FD4-53A5-4678-8A9B-33AF2B6F977C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,56 +2158,51 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2637,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4AA65D-6887-4F9C-9BAB-08E9F9E10938}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1350465D-E32C-4DD3-B170-47930E8916F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2BD63-85B0-4B5F-8A57-BABC61B9AF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="23" r:id="rId17"/>
     <sheet name="Norway" sheetId="24" r:id="rId18"/>
     <sheet name="Poland" sheetId="25" r:id="rId19"/>
+    <sheet name="UK" sheetId="26" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="87">
   <si>
     <t>Wg</t>
   </si>
@@ -306,6 +307,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3340</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334A2FD4-53A5-4678-8A9B-33AF2B6F977C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -3264,6 +3271,233 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E168F3-F31A-4459-A4F6-B1E12285BF7D}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Test Data/Gallery_Panels.xlsx
+++ b/Test Data/Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2BD63-85B0-4B5F-8A57-BABC61B9AF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C7F3F8-5B99-4CA8-8080-7B4232CC9717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="87">
   <si>
     <t>Wg</t>
   </si>
@@ -2225,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1271AC-FFEC-44CE-91CF-FA4FCCBE2833}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,41 +2381,31 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3288,7 +3278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E168F3-F31A-4459-A4F6-B1E12285BF7D}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
